--- a/data/卒論結果まとめ.xlsx
+++ b/data/卒論結果まとめ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fugat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC6FAD-D869-6D46-A2CD-115D09709217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D24E2F8-7161-43C6-8299-4C745B715DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,99 +36,182 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>WMC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read(short-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write(short-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Listen(short-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speak(short-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read(long-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write(long-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Listen(long-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speak(long-term)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read(load)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write(load)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Listen(load)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Speak(load)</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>P01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P02</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P03</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P04</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P05</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>P06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WMC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Read_ShortTerm</t>
-    <rPh sb="0" eb="2">
-      <t>モクドク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Write_ShortTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Listen_ShortTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speak_ShortTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Read_LongTerm</t>
-    <rPh sb="0" eb="2">
-      <t>モクドク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Write_LongTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Listen_LongTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speak_LongTerm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Read_Load</t>
-    <rPh sb="0" eb="2">
-      <t>モクドク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Write_Load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Listen_Load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Speak_Load</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>P09</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>Participant_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -136,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,71 +608,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB67353-A9E3-4B4C-B3A9-2B65C0E8B954}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" customWidth="1"/>
+    <col min="4" max="4" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="6" width="16.84375" customWidth="1"/>
+    <col min="7" max="7" width="16.69140625" customWidth="1"/>
+    <col min="8" max="8" width="15.84375" customWidth="1"/>
+    <col min="9" max="9" width="14.84375" customWidth="1"/>
+    <col min="10" max="11" width="15.69140625" customWidth="1"/>
+    <col min="12" max="13" width="15.53515625" customWidth="1"/>
+    <col min="14" max="14" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -631,9 +716,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -675,9 +760,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -719,9 +804,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -763,9 +848,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -807,9 +892,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -849,6 +934,1466 @@
       </c>
       <c r="N7">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>42</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>38</v>
+      </c>
+      <c r="N11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>27</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>22</v>
+      </c>
+      <c r="L15">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>28</v>
+      </c>
+      <c r="N19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>36</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>21</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>25</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>27</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>25</v>
+      </c>
+      <c r="L38">
+        <v>34</v>
+      </c>
+      <c r="M38">
+        <v>29</v>
+      </c>
+      <c r="N38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>33</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.6">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
